--- a/src/test/resources/jacobi/test/data/NominalLikelihoodClassifierTest.xlsx
+++ b/src/test/resources/jacobi/test/data/NominalLikelihoodClassifierTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25092" windowHeight="6336" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25092" windowHeight="6336" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="unweighted outlook and golf" sheetId="1" r:id="rId1"/>
@@ -5498,7 +5498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>37</v>
@@ -7695,11 +7695,11 @@
     </row>
     <row r="83" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <f>B75+$A$72</f>
+        <f t="shared" ref="A83:B85" si="9">B75+$A$72</f>
         <v>3</v>
       </c>
       <c r="B83" s="1">
-        <f>C75+$A$72</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C83" s="1" t="str">
@@ -7709,11 +7709,11 @@
     </row>
     <row r="84" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <f>B76+$A$72</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B84" s="1">
-        <f>C76+$A$72</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C84" s="1" t="str">
@@ -7723,11 +7723,11 @@
     </row>
     <row r="85" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <f>B77+$A$72</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="B85" s="1">
-        <f>C77+$A$72</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C85" s="1" t="str">
@@ -7769,7 +7769,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B90" s="1">
-        <f t="shared" ref="B90:B91" si="9">B84/SUM(B$83:B$85)</f>
+        <f t="shared" ref="B90:B91" si="10">B84/SUM(B$83:B$85)</f>
         <v>0.125</v>
       </c>
     </row>
@@ -7779,7 +7779,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B91" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.375</v>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -8017,2001 +8017,2001 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f ca="1">RAND()</f>
-        <v>0.53757512587885559</v>
+        <v>7.4667208162231935E-2</v>
       </c>
       <c r="B1" s="1">
         <f t="shared" ref="B1:L16" ca="1" si="0">RAND()</f>
-        <v>0.96467722698365455</v>
+        <v>0.38933140483372053</v>
       </c>
       <c r="C1" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97181228856998225</v>
+        <v>0.60668623528322996</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25431503909327968</v>
+        <v>0.5439118607375536</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99759667622089621</v>
+        <v>8.4612562446411133E-2</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5069307948403492</v>
+        <v>6.6351448746607145E-2</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86255601383139036</v>
+        <v>0.86592223270952517</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29710313973685487</v>
+        <v>0.33138817038524448</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9397111777120366</v>
+        <v>0.15455874012238535</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14520486375697128</v>
+        <v>0.50124938642649353</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95609035519774932</v>
+        <v>0.31041772448644356</v>
       </c>
       <c r="L1" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25118272438550204</v>
+        <v>0.70244683116355078</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <f t="shared" ref="A2:L36" ca="1" si="1">RAND()</f>
-        <v>0.81426247037557975</v>
+        <v>0.33823120975369325</v>
       </c>
       <c r="B2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34558388652534078</v>
+        <v>0.34495410109960445</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46241744776227656</v>
+        <v>0.60016594499826537</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52803175130423952</v>
+        <v>0.25191789347197469</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46649183912683423</v>
+        <v>0.78155993223023978</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2707315519887582</v>
+        <v>0.64783361034443199</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8399293542497213E-2</v>
+        <v>0.16317909698281396</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34150221646648327</v>
+        <v>0.74763756019886607</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8575259780822585</v>
+        <v>0.45433592127886191</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90091455036676993</v>
+        <v>0.71152476559958677</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67556342809232672</v>
+        <v>0.77270914841155369</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92623471340503016</v>
+        <v>0.11872790168937208</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85252055228270174</v>
+        <v>0.33796370159553035</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76241333168368974</v>
+        <v>0.35547545326356422</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74263456246647297</v>
+        <v>0.5639403613705497</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46814963243933394</v>
+        <v>0.5840488151859895</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10665771834254345</v>
+        <v>0.2187468533343403</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38937208749936114</v>
+        <v>0.87335241953858134</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40549185579866276</v>
+        <v>0.42412049415804021</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8917890351944493E-2</v>
+        <v>0.98302774484061595</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47616654886794907</v>
+        <v>0.61280781524628058</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11884093679393504</v>
+        <v>3.942839965417666E-3</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73394102107304637</v>
+        <v>0.90373194077315566</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22296521517037127</v>
+        <v>0.85597704126235563</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45670645884509364</v>
+        <v>0.72874498203788318</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89055708131678335</v>
+        <v>0.57667590408913072</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59550007230641577</v>
+        <v>0.64377694556251186</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1925574378904917E-2</v>
+        <v>0.31009472205146138</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.372940029397552</v>
+        <v>0.36529753879244842</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45687435139369215</v>
+        <v>0.33291270575915632</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38963403172173372</v>
+        <v>0.69080605256642169</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5103467538890292E-2</v>
+        <v>0.59221310190781928</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83217500627454799</v>
+        <v>0.55228358751078332</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5898156693109149E-2</v>
+        <v>0.47405491917833864</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55897548076722869</v>
+        <v>0.89430312497329079</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41882051797321451</v>
+        <v>0.61556871290953941</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78329488031586514</v>
+        <v>0.52726409673773045</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28543686863735851</v>
+        <v>0.93278341691738087</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34555944398759031</v>
+        <v>0.73095548324727533</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35435267788800906</v>
+        <v>0.48360176057086046</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6414179571281885</v>
+        <v>0.49203676075804392</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37761744167462175</v>
+        <v>0.72368772063385511</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90216907095631194</v>
+        <v>0.95445992317008999</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56359783703887312</v>
+        <v>0.26600029909241441</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93114631447719365</v>
+        <v>0.19691957267403659</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7133067964328181E-2</v>
+        <v>0.64543794045704894</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83393706327997785</v>
+        <v>0.57870885146216799</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42896582562528729</v>
+        <v>0.99809656796635959</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8161790167578866E-2</v>
+        <v>0.97546872146080954</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61013461286048698</v>
+        <v>5.6498374421062092E-2</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2524880957531752E-2</v>
+        <v>0.78310291455762993</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.754854773485097</v>
+        <v>0.42128072561485896</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56034247947612326</v>
+        <v>0.70082190871879491</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77036800557542273</v>
+        <v>0.94117537173338339</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4257114547739764E-2</v>
+        <v>0.63994124388746709</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55045174474078773</v>
+        <v>8.6579331482286026E-3</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24609133851444032</v>
+        <v>0.94647639002455697</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76776273395552708</v>
+        <v>0.80583255773243179</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3171750746353137E-2</v>
+        <v>0.78792833404743789</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36470095485937037</v>
+        <v>0.27244786301764368</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12833946410942632</v>
+        <v>0.705333044808094</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66373084247607106</v>
+        <v>0.53998028148860011</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14894079740654231</v>
+        <v>0.5630007643116538</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47714031389158029</v>
+        <v>0.42602633583323424</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94174191874618696</v>
+        <v>0.20122130363065083</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32974527905468043</v>
+        <v>0.58244979695846721</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52145632652857254</v>
+        <v>0.32230702422015889</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10807892076555914</v>
+        <v>0.4270227839167422</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2224622819400768E-2</v>
+        <v>0.385071696716342</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54938828135959306</v>
+        <v>0.64693666194888988</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68271276851478213</v>
+        <v>0.26106536169693373</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94105568501131753</v>
+        <v>0.4466622514149724</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22644220190432007</v>
+        <v>0.3716050059055257</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26037004168548994</v>
+        <v>0.48297084066709239</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41789599157163737</v>
+        <v>0.74241161708857961</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9673538409895247</v>
+        <v>0.26114590215739841</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73195023858183506</v>
+        <v>0.35881974290637531</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50457430277142712</v>
+        <v>0.95110382919937941</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31605436001113629</v>
+        <v>0.79461373809734104</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55774293119123353</v>
+        <v>0.19996327720802498</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66941860252271612</v>
+        <v>0.3650231943512825</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9750494272627287</v>
+        <v>8.8689667400754013E-2</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1384730444970135E-2</v>
+        <v>0.78202367828622121</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23690899645642183</v>
+        <v>9.3875469889181939E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40603129275389005</v>
+        <v>0.80209802165172417</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67439503336709017</v>
+        <v>0.46328912376262443</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47028696391122315</v>
+        <v>0.4276882796300957</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56679501806344512</v>
+        <v>0.50461961411811751</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81382140828669203</v>
+        <v>0.36499808735517358</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24422160269483828</v>
+        <v>8.5530732047197078E-2</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32063165324068221</v>
+        <v>0.96079669936925727</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66389911854224626</v>
+        <v>0.63559316461223692</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14252684739194632</v>
+        <v>0.78825664360080172</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98611145593061633</v>
+        <v>0.39815161411400135</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3190719687601677E-2</v>
+        <v>0.6456707307032632</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6129588064731728</v>
+        <v>0.83332495366511727</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96825751873613475</v>
+        <v>0.54186522709699303</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9001856718688099E-2</v>
+        <v>0.76148406515034894</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64614814723475467</v>
+        <v>0.39606145484864164</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27247256059176395</v>
+        <v>9.5749704275232661E-2</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72448658347738837</v>
+        <v>9.2570466720489852E-2</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28006342136007689</v>
+        <v>0.85244574917711402</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8956922491209327E-2</v>
+        <v>0.83596856462726421</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31141533503853502</v>
+        <v>0.66048407780063323</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86148182239765292</v>
+        <v>0.83245391221905241</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54619025971357504</v>
+        <v>0.46460651113524154</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70317161818964213</v>
+        <v>0.1175737127207408</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40068104175492825</v>
+        <v>0.55381602998440937</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84736288058228248</v>
+        <v>0.485682929269872</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79794575182902372</v>
+        <v>0.68456318723440635</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21880821846281473</v>
+        <v>0.85940621873213197</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75162451232577332</v>
+        <v>0.88597694549520722</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6402788166595283E-2</v>
+        <v>0.91648883627907518</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33622294955745213</v>
+        <v>0.62640958175353212</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53232430695674593</v>
+        <v>0.35165247714633041</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19270427429258119</v>
+        <v>0.74627840116302158</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93568478218780704</v>
+        <v>0.70830927952732292</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24934398763852117</v>
+        <v>0.95095451534498887</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88475450172522885</v>
+        <v>0.77948707027039577</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77854017168836531</v>
+        <v>0.5873822135922151</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84538131342345113</v>
+        <v>0.38208564885375018</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92200594351138543</v>
+        <v>0.91066391554760961</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20160735955007536</v>
+        <v>0.61682570884532595</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98867809336188828</v>
+        <v>0.79295752236217176</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6321318436143621E-2</v>
+        <v>0.86995461666525109</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77238575395519182</v>
+        <v>0.9897646171000104</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7711982043525567E-2</v>
+        <v>0.84655188315382823</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6370648021999602</v>
+        <v>0.85005675197355568</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12829503839400369</v>
+        <v>0.74526921406330038</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75622887004268557</v>
+        <v>0.33435820836648733</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4826910292220115E-2</v>
+        <v>0.93394844313048941</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18093516922616759</v>
+        <v>0.89941093665579797</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73911739862352088</v>
+        <v>0.93982420887617391</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32746039898390777</v>
+        <v>0.35400266264596592</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8881549281976122E-2</v>
+        <v>0.24465557347223343</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81075109059941275</v>
+        <v>0.23439384356404036</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95734251089977274</v>
+        <v>9.2005222116135821E-2</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85999591361849792</v>
+        <v>0.89708388953487428</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82823606332197497</v>
+        <v>0.86749650670514922</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3777765662142301E-2</v>
+        <v>0.18551523988391438</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32552655266838226</v>
+        <v>0.69706991781708827</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1661971503543485E-2</v>
+        <v>0.87363937590743679</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3112391851905048E-2</v>
+        <v>0.50934844653451183</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39764343201507912</v>
+        <v>0.65179185560289088</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20088858198407211</v>
+        <v>0.3280500761423828</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85625682806038639</v>
+        <v>0.92448631516982738</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32766264350466856</v>
+        <v>0.81003773138274626</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32343156388603211</v>
+        <v>0.56701649930718634</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78766845983555556</v>
+        <v>0.66554212958304571</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8487000259626241E-2</v>
+        <v>0.78975824988289822</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2206144018994195</v>
+        <v>0.3774579354470784</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54751816569232192</v>
+        <v>0.11189732347932069</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17361556011178836</v>
+        <v>0.77536275886468309</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70718209149885847</v>
+        <v>0.77010527519033434</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91673441399464262</v>
+        <v>8.5295986685340885E-3</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39857564618348751</v>
+        <v>0.37217193667802739</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82511262309352973</v>
+        <v>0.65396909330113451</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50588979842081305</v>
+        <v>0.42974331418640233</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94690477976629039</v>
+        <v>0.87403402606322012</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93955436936465331</v>
+        <v>6.4539971682595176E-2</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45638989468361679</v>
+        <v>0.75703733133836115</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89010152379122387</v>
+        <v>0.49986334956517986</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16401628051568096</v>
+        <v>0.86896993940950706</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70196562138346508</v>
+        <v>0.93355261081142427</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18802217976360336</v>
+        <v>0.35987813982427708</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70363031206814453</v>
+        <v>0.52321254657704386</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35748030090916993</v>
+        <v>0.68687254234241879</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39640571422880033</v>
+        <v>0.70640935737736787</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71229911291930648</v>
+        <v>0.57719291116214644</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6521150722412963E-2</v>
+        <v>5.4759299289616981E-2</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26632315288413455</v>
+        <v>0.51326773312594443</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77313555577688609</v>
+        <v>0.79034818301544496</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71802297854344377</v>
+        <v>0.34398958463385121</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71332166139312314</v>
+        <v>0.90037838089806854</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4072276938709074</v>
+        <v>0.97555389952420202</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58617536151538596</v>
+        <v>0.74297645800963918</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94514840862102889</v>
+        <v>0.41262178435789176</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26044477779740971</v>
+        <v>0.35004973552420326</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57001512317682779</v>
+        <v>0.22180067538239645</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1656208862184797</v>
+        <v>0.66506049619696861</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9105422639529569</v>
+        <v>0.70386797112437571</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35128118306999956</v>
+        <v>0.30142048636232399</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49387826210805441</v>
+        <v>0.11879528501645953</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28248696763461412</v>
+        <v>2.4827959587941928E-3</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65218649687531716</v>
+        <v>0.62546276577816906</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40832052233683314</v>
+        <v>0.74258880682167783</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76148249140278146</v>
+        <v>0.47167249915670939</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38580817973031767</v>
+        <v>0.96604534246657614</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56332797770841536</v>
+        <v>0.9007339986730265</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24913227535814342</v>
+        <v>4.8500334076914897E-2</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31826694579794823</v>
+        <v>0.95167146838482053</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23408209775814204</v>
+        <v>0.23106947736931527</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96641344830622522</v>
+        <v>0.73822718003282151</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31120668305295496</v>
+        <v>0.87732762243296136</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18623178410732233</v>
+        <v>0.56559724007706891</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74569767321695646</v>
+        <v>0.69319326021396066</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21939154253360982</v>
+        <v>8.9524339050161106E-2</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6975996685029089E-2</v>
+        <v>0.27630839672071383</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45172086615174423</v>
+        <v>2.2568777955520369E-2</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78732973614840929</v>
+        <v>0.89907687338492237</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67788423721602742</v>
+        <v>0.58574714281637552</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74774216257622317</v>
+        <v>0.25717681213076926</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47329185666167017</v>
+        <v>0.91410791005248648</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59917070656994842</v>
+        <v>0.47321229993952207</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37997477162406468</v>
+        <v>0.75900555385039437</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54933216638157534</v>
+        <v>0.68008857964551228</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71465493530669677</v>
+        <v>0.84888698395094964</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1163530619296247E-2</v>
+        <v>0.73615174243898052</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37621331741381381</v>
+        <v>0.74706711417509386</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38901949015149961</v>
+        <v>0.32688789465408852</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45065119128295561</v>
+        <v>0.92399468311637212</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74791261196836023</v>
+        <v>0.58775052872119915</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89622291559089784</v>
+        <v>0.62353479063713035</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53959470422862865</v>
+        <v>2.8446025698325439E-4</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85644927182428487</v>
+        <v>0.50236148850311935</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.485578106063833</v>
+        <v>0.50800563816315414</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25304934227986586</v>
+        <v>0.37851767259436242</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96030805257350815</v>
+        <v>0.32579645814392055</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73489535778396031</v>
+        <v>0.53748904741414216</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43332532665451939</v>
+        <v>3.3164340725971075E-2</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7497156432986372E-2</v>
+        <v>2.1003680739226538E-2</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92797055338285195</v>
+        <v>0.75821946966917753</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18947956758782969</v>
+        <v>0.20680531551657233</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14114249380772714</v>
+        <v>0.60706980309342606</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55524101619255406</v>
+        <v>0.49966685594700788</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36690925858095313</v>
+        <v>0.3235301913398424</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61467714234847082</v>
+        <v>6.7873337188028793E-2</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23794710265229846</v>
+        <v>0.26279076847074878</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7849553742129588</v>
+        <v>0.62058445421303121</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.490449187111516E-2</v>
+        <v>0.55398317054185364</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17733821052463716</v>
+        <v>9.5369954165025805E-2</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80865304601053489</v>
+        <v>0.6175239687148002</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60566981772325601</v>
+        <v>0.9049103101477044</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25035776730797088</v>
+        <v>4.5964625061023168E-2</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51623246386599508</v>
+        <v>0.10447626875185678</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58955644194045409</v>
+        <v>0.68850155309110639</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32480440172181546</v>
+        <v>0.18113442952042369</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90233889842829584</v>
+        <v>7.5854764591228419E-2</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.961458486860316E-2</v>
+        <v>0.42618002999615867</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55978537161977826</v>
+        <v>0.49129068088750794</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61054778002003152</v>
+        <v>0.65529585884733843</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91726163304979691</v>
+        <v>0.47853279907908908</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10841183534843712</v>
+        <v>0.92956865093697272</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3281545382129045E-2</v>
+        <v>0.81608938681250309</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8551664980530438E-2</v>
+        <v>0.63595151716022857</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93655375676773778</v>
+        <v>7.5409610522810255E-2</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6853340510288368E-2</v>
+        <v>0.39418766665184424</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40208282277471175</v>
+        <v>0.59526980514969641</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55599894155597296</v>
+        <v>8.9019985084182518E-2</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67079809084534592</v>
+        <v>0.1117212589706823</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79784515944963419</v>
+        <v>0.72071265916145411</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2493852545701345</v>
+        <v>0.91068401682304589</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17447958846385891</v>
+        <v>0.32308189379565766</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48820730740636875</v>
+        <v>0.44311154536501107</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72308087078635208</v>
+        <v>0.93524746686584925</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69236867202687924</v>
+        <v>0.73162968036097653</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9151070148771447E-2</v>
+        <v>0.21279411251181868</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50889975561939016</v>
+        <v>0.6621494024347202</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29483254435367334</v>
+        <v>0.77311257133252276</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4146936214427983E-2</v>
+        <v>0.94925578473698258</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9067805980116601E-2</v>
+        <v>0.83733204235237513</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81680558809276727</v>
+        <v>0.24552242853001038</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71980055483154659</v>
+        <v>0.67008007065456121</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74288519630936123</v>
+        <v>0.43090455405991246</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78700776116237692</v>
+        <v>0.51368284988071211</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7064814089446767</v>
+        <v>0.70004530431113887</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43763250955260458</v>
+        <v>0.63170981736533771</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34282434794309868</v>
+        <v>0.47743437013345225</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76469099256102147</v>
+        <v>0.5030739882042442</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41704382586420086</v>
+        <v>0.42412781572699276</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90474396847859551</v>
+        <v>0.46182092312123502</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64478844985259243</v>
+        <v>0.78341179761693824</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36422195408899738</v>
+        <v>0.36672752295678013</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21722665949942943</v>
+        <v>0.45434355186022746</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31422517439247666</v>
+        <v>0.41891399969378318</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29340124175683002</v>
+        <v>7.7337400179866567E-4</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.321934452574963</v>
+        <v>0.74998358138557897</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26124857554266168</v>
+        <v>6.9220282996152349E-2</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2982290775101244</v>
+        <v>5.8169289161295157E-2</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52844390346656456</v>
+        <v>0.97376372764897179</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85816686276785414</v>
+        <v>0.91641422127640626</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60514290927898751</v>
+        <v>0.58019190309212409</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91641287731617038</v>
+        <v>0.53825995404968341</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11163305130535195</v>
+        <v>0.87308808190140219</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87783765345077913</v>
+        <v>0.8037728441923736</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2498696141927591</v>
+        <v>3.3914532118962781E-2</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47559912120676018</v>
+        <v>9.8326545273444976E-3</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42286864822538872</v>
+        <v>0.17423762860019931</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72449429852870428</v>
+        <v>0.49415168394472175</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3920965268352733</v>
+        <v>0.73420752182264371</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44399731069671666</v>
+        <v>0.67799378548984812</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3327514225698072E-2</v>
+        <v>0.35240092310638549</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41089693888670686</v>
+        <v>0.83817105526756452</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8675715949634304E-3</v>
+        <v>0.90482690997808068</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55591110525279719</v>
+        <v>0.25289709438827934</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59365602674944395</v>
+        <v>0.49099339293415156</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3955957895474804E-2</v>
+        <v>9.0157357126316562E-2</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82788388406851154</v>
+        <v>0.29406559473666116</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7309721225456286</v>
+        <v>0.48789037221893372</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23144307316111934</v>
+        <v>0.90360822290413045</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90412847839197519</v>
+        <v>0.57145430387836293</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67871156752732531</v>
+        <v>0.58789719036746091</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9503348749640685E-2</v>
+        <v>0.98697096102134041</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81029026404381099</v>
+        <v>0.82664205351252784</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3921071375345271E-2</v>
+        <v>0.33112662353275113</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73889146102501146</v>
+        <v>0.52006210766577554</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85730244573115011</v>
+        <v>0.16401169452094078</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71096959151542993</v>
+        <v>0.37553214066033114</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70570697460766096</v>
+        <v>0.52077556600406993</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46279323407677264</v>
+        <v>0.24968895438478911</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72576142901347751</v>
+        <v>0.96224434659743519</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37949378476152729</v>
+        <v>0.25745997154527889</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5965796622339061E-2</v>
+        <v>0.75460776478533631</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1858965694876948E-2</v>
+        <v>0.99364342710287235</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66146113618909652</v>
+        <v>0.61870671888677098</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46878968207081195</v>
+        <v>0.23239838915266131</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55508717091788251</v>
+        <v>0.93915439938711376</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18200199556631846</v>
+        <v>0.81898915176426978</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47855273675617838</v>
+        <v>0.57258550889468751</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42676801863414981</v>
+        <v>0.59584621227685797</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93762680475885285</v>
+        <v>6.7049977471193456E-2</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58992338078683504</v>
+        <v>0.91137195593032416</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28868027694220011</v>
+        <v>7.8085915387235638E-2</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19440322777032659</v>
+        <v>0.90470445830844859</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19037850910015808</v>
+        <v>0.28978541196318375</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49676868981833611</v>
+        <v>0.33876038905805128</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57500940828357561</v>
+        <v>1.0314046956674927E-2</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1683406348619148E-2</v>
+        <v>0.14046690126189643</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73517997414150371</v>
+        <v>0.56748086243594709</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17859318101456689</v>
+        <v>2.522641620152577E-2</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34044440472641802</v>
+        <v>0.31288205834339233</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66599661685101486</v>
+        <v>0.94635477130928447</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81786895904644685</v>
+        <v>0.70758013696514588</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4798272639578558</v>
+        <v>0.56130489949667384</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5482152619313575</v>
+        <v>0.93584737826057107</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43007379850177196</v>
+        <v>0.61643255911246753</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87336323790014769</v>
+        <v>0.60517560783927005</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48557308453309733</v>
+        <v>0.5997395618092316</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89250761609405271</v>
+        <v>0.86843550413753579</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90197893339063173</v>
+        <v>0.91679788237190318</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13612661259761816</v>
+        <v>0.87138563046871698</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57154216923204315</v>
+        <v>0.30896180095827919</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98996556511965894</v>
+        <v>0.43163905965155158</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65096984120868939</v>
+        <v>3.8540685866774504E-2</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28313092631645198</v>
+        <v>0.20968090667221218</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62595259511835544</v>
+        <v>0.718234030460013</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3788276765782719E-4</v>
+        <v>0.84516759136139774</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1.84672925149858E-2</v>
+        <v>0.72568201705654434</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5564112503423884E-2</v>
+        <v>0.67981785930794592</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20621923178899249</v>
+        <v>0.18287628889118057</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77383753484521167</v>
+        <v>7.3235914919355882E-2</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94970403604080844</v>
+        <v>0.57480169700973083</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16516361832277826</v>
+        <v>0.8666022414128699</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39665654472082656</v>
+        <v>0.46168570254258634</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28121661674014209</v>
+        <v>0.82657570194772068</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0532643184395467E-2</v>
+        <v>6.8420732875937196E-2</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8718477147950643E-2</v>
+        <v>9.1160085371806865E-2</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85945985043223516</v>
+        <v>0.95859732641704143</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58788272006305486</v>
+        <v>0.65916441173144735</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2648756513509537</v>
+        <v>0.7375270915578821</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57079778759636202</v>
+        <v>0.24352709854058163</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3904646953734101E-2</v>
+        <v>0.26506003553815449</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72201344223303054</v>
+        <v>0.49280215948930794</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19836092237036551</v>
+        <v>0.17947643783458234</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70557268665229667</v>
+        <v>0.22090343363864751</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87357339313020888</v>
+        <v>2.7027547597473833E-2</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36776906978559987</v>
+        <v>0.72781911118249942</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76389100572478119</v>
+        <v>0.12644265827633983</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67407691517317936</v>
+        <v>0.47687434275521456</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29153574859518427</v>
+        <v>0.42869758226066645</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20741908852994495</v>
+        <v>0.56023456431791097</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27073847259984696</v>
+        <v>0.1079576053422211</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85164851324814284</v>
+        <v>0.50612813285434499</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72680871249505086</v>
+        <v>7.4215488315608757E-3</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.532463121492605</v>
+        <v>0.6776800794110629</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2919402782103212</v>
+        <v>0.45055637737795884</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.768806740522924E-2</v>
+        <v>0.85596346911871168</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39718339850052953</v>
+        <v>0.96652920098342265</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63544147868963941</v>
+        <v>0.33503806881080489</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82656267787482984</v>
+        <v>0.62754538374494995</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17168126845133913</v>
+        <v>0.18051251008787794</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23657454177719517</v>
+        <v>0.23858856116401217</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89980114459846749</v>
+        <v>0.49167815868233011</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76699612526369487</v>
+        <v>0.29050818670483003</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98826946159441276</v>
+        <v>0.34611281883351674</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85513405474813342</v>
+        <v>0.3303928135136609</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40070061256879475</v>
+        <v>0.46763994676064291</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6207785876185596E-2</v>
+        <v>0.1294700460544802</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5502435516514419</v>
+        <v>0.56705544619467607</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45365827593772434</v>
+        <v>0.9173955188606655</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64630687182243596</v>
+        <v>0.38509827927732432</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98270813476986607</v>
+        <v>0.99535612022256936</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37719511864114807</v>
+        <v>0.50047220351252242</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68574739053725398</v>
+        <v>9.7161777760890633E-2</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10422825684612202</v>
+        <v>0.85522651459079557</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54373238319049444</v>
+        <v>0.13098559177546398</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76645667217045332</v>
+        <v>0.64834042006718817</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79285439451299899</v>
+        <v>9.2953232321887791E-2</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68911265793917165</v>
+        <v>0.28905676353451037</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24166231838209529</v>
+        <v>0.22130690087265581</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24661399879091606</v>
+        <v>0.16007974672373082</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66522713737892492</v>
+        <v>0.85145480642665716</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17195811286967588</v>
+        <v>0.81488358610332745</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94901643954625581</v>
+        <v>0.97423952409467451</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7274710372773319E-2</v>
+        <v>0.93754648805561813</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84265200652181282</v>
+        <v>0.61967692905304472</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6914631705813763</v>
+        <v>0.38046984920196714</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12741277981402477</v>
+        <v>1.0787056320626931E-4</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23759500196333716</v>
+        <v>0.61338648150759156</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61895355352015735</v>
+        <v>4.9349311209031299E-2</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10555975367101578</v>
+        <v>0.98227571272793845</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67842454993554746</v>
+        <v>0.18324913053216241</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63622057262184073</v>
+        <v>0.15368046755992415</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82851288900986519</v>
+        <v>0.64631618893371667</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62389298650008762</v>
+        <v>0.90111216026520125</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27518890506691107</v>
+        <v>0.23747522897745599</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54931604526106204</v>
+        <v>0.5096635345317021</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26844548789326739</v>
+        <v>0.58170287375614149</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62509589557757939</v>
+        <v>0.29894561115933982</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58917385149427892</v>
+        <v>0.55687679078739838</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" ref="A37:L40" ca="1" si="2">RAND()</f>
-        <v>0.71540156500332941</v>
+        <v>0.28028419712365593</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22341444915181163</v>
+        <v>0.17938714077422724</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82278612050160949</v>
+        <v>0.6465274210773263</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83827000165304755</v>
+        <v>0.7299241429063521</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91899153013466239</v>
+        <v>0.82878464364597648</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76198431560200008</v>
+        <v>0.80088434189786339</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43359270652539716</v>
+        <v>0.48682985313786054</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76141266314029155</v>
+        <v>2.765714414005549E-2</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90967860335804429</v>
+        <v>9.6586220319838545E-2</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38480601819721783</v>
+        <v>0.97857583182911156</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51393597800749491</v>
+        <v>0.571244051367225</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5.222738296649565E-2</v>
+        <v>0.81647244115967599</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23484511586585699</v>
+        <v>0.67807331270629101</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74080649932285758</v>
+        <v>0.216199192124506</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61389259701605225</v>
+        <v>0.9688905199723945</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54724732036134405</v>
+        <v>0.5163998501925573</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79855073082591088</v>
+        <v>0.64503141859022639</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82701508835882465</v>
+        <v>0.34450902992574073</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74618384417223271</v>
+        <v>0.59962528154650563</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22159952589254583</v>
+        <v>0.8535921777260006</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.603477446646841</v>
+        <v>0.82610171440021651</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8.0556942822349598E-2</v>
+        <v>0.59317185351766355</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42520007042569385</v>
+        <v>0.37737147485903222</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4863348036825379</v>
+        <v>0.15075209401750289</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16079328656043801</v>
+        <v>0.11967211369205888</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23670918914046579</v>
+        <v>0.68874623634331766</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89215697448980757</v>
+        <v>0.95100650993568892</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9.4318091277105998E-2</v>
+        <v>0.70742060503032478</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44115160597392988</v>
+        <v>0.66437628964272732</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74790218736779301</v>
+        <v>0.68423373182281311</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51205981604269313</v>
+        <v>0.65283377788321539</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72683221188448754</v>
+        <v>0.77961668406187912</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18016249569297449</v>
+        <v>0.7161404058626224</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65733662122998793</v>
+        <v>0.25695804144640655</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1388198174165417</v>
+        <v>3.6510255645410217E-2</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46558790999894617</v>
+        <v>0.82987013251394293</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36343936275149213</v>
+        <v>0.25915273680829232</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54875645062484135</v>
+        <v>0.55560353757799397</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0171461603452974E-2</v>
+        <v>0.58407767930997556</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58066047501457563</v>
+        <v>0.7124410626493406</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31083166108774662</v>
+        <v>0.4838467215490001</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44985819256503923</v>
+        <v>0.45555588000080882</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58076623462765853</v>
+        <v>0.2082066288165193</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40552192245727325</v>
+        <v>0.38472530892897205</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76982665835324593</v>
+        <v>2.7648062176141353E-2</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3379571993937467E-2</v>
+        <v>0.48691765868496195</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24807852083569204</v>
+        <v>0.52145813690283049</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37764807532707234</v>
+        <v>0.12475173071490309</v>
       </c>
     </row>
   </sheetData>
